--- a/biology/Zoologie/Halyzia/Halyzia.xlsx
+++ b/biology/Zoologie/Halyzia/Halyzia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Halyzia est un genre d'insectes coléoptères de la famille des coccinelles.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (31 mars 2023)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (31 mars 2023) :
 Halyzia dejavu Poorani &amp; Booth, 2006
 Halyzia feae Gorham, 1895
 Halyzia ichiyanagii Kitano, 2019
@@ -549,7 +563,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Halyzia sedecimguttata est une coccinelle orangée à points blancs.
 Les bordures de la carapace sont transparents, ce qui est rare chez les insectes.
@@ -581,7 +597,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>C'est un insecte mycophage (qui mange des champignons, ou spores de champignons), qu'on trouve souvent pour cette raison à proximité du bois-mort ou de champignons ou sur des feuilles malades. Pour cette raison également, on peut le voir avant l'apparition des pucerons en fin d'hiver et au début du printemps, puis le jour sur des écorces, branches et feuilles de chênes, noisetiers et divers arbustes. 
 Il se nourrit du mycélium ou des spores
